--- a/data/trans_dic/P14B23-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P14B23-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -622,7 +623,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,54 +686,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,47; 5,85</t>
+          <t>1,59; 5,84</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,03; 5,05</t>
+          <t>1,13; 5,43</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,57; 3,4</t>
+          <t>0,54; 3,44</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,1; 12,93</t>
+          <t>5,85; 13,12</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,51; 15,16</t>
+          <t>7,31; 14,99</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,95; 6,47</t>
+          <t>2,99; 6,33</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,36; 8,36</t>
+          <t>4,33; 8,42</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,68; 9,67</t>
+          <t>4,65; 9,09</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,0; 4,23</t>
+          <t>2,0; 4,25</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -795,54 +796,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,62; 5,68</t>
+          <t>1,74; 5,85</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,48; 4,44</t>
+          <t>1,45; 4,51</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,49; 6,17</t>
+          <t>2,36; 6,08</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,89; 13,5</t>
+          <t>7,73; 13,37</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,07; 11,21</t>
+          <t>6,04; 11,19</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,59; 12,95</t>
+          <t>8,6; 12,95</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,26; 8,75</t>
+          <t>5,32; 8,72</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,3; 7,37</t>
+          <t>4,33; 7,38</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,99; 8,97</t>
+          <t>5,95; 9,03</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,76; 5,49</t>
+          <t>1,5; 5,36</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,29; 2,44</t>
+          <t>0,29; 2,38</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,57; 8,86</t>
+          <t>3,57; 8,93</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,12; 10,02</t>
+          <t>4,05; 9,71</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,2; 8,46</t>
+          <t>3,37; 8,25</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,77; 8,76</t>
+          <t>4,71; 8,87</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,29; 6,38</t>
+          <t>3,29; 6,51</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,12; 5,06</t>
+          <t>2,08; 4,98</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,7; 7,86</t>
+          <t>4,64; 7,89</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,78</t>
+          <t>0,0; 2,01</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,5; 2,94</t>
+          <t>0,29; 2,95</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,91; 8,85</t>
+          <t>3,07; 9,05</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,93; 11,87</t>
+          <t>6,03; 11,69</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,74; 7,07</t>
+          <t>2,82; 7,2</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,28; 9,67</t>
+          <t>3,92; 9,9</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,34; 6,46</t>
+          <t>3,23; 6,34</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,07; 4,52</t>
+          <t>1,95; 4,56</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,56; 8,31</t>
+          <t>4,35; 8,28</t>
         </is>
       </c>
     </row>
@@ -1125,54 +1126,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,49; 6,62</t>
+          <t>1,42; 6,68</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,35; 8,22</t>
+          <t>2,66; 8,88</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,31; 3,06</t>
+          <t>0,36; 3,24</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>11,73; 21,68</t>
+          <t>11,66; 21,92</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,27; 12,48</t>
+          <t>5,22; 12,47</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,78; 5,65</t>
+          <t>1,77; 5,56</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,21; 12,84</t>
+          <t>7,2; 12,89</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,63; 9,21</t>
+          <t>4,77; 9,25</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,61; 3,89</t>
+          <t>1,63; 3,95</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1235,54 +1236,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,51; 6,2</t>
+          <t>1,57; 6,25</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,3; 2,83</t>
+          <t>0,3; 2,6</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3,49; 8,32</t>
+          <t>3,5; 8,55</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>5,59; 12,35</t>
+          <t>5,54; 12,11</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>6,39; 13,73</t>
+          <t>6,84; 13,98</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>4,75; 9,89</t>
+          <t>5,01; 9,95</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>4,19; 8,24</t>
+          <t>4,13; 8,14</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>3,6; 7,97</t>
+          <t>3,8; 7,73</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>4,74; 8,06</t>
+          <t>4,75; 8,37</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,52; 4,32</t>
+          <t>1,48; 4,14</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,45; 2,36</t>
+          <t>0,42; 2,43</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,26; 7,38</t>
+          <t>3,28; 7,12</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4,18; 7,71</t>
+          <t>4,2; 8,06</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,81; 6,13</t>
+          <t>2,8; 6,13</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>3,52; 11,25</t>
+          <t>3,61; 11,01</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>3,18; 5,43</t>
+          <t>3,17; 5,42</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,89; 3,86</t>
+          <t>1,83; 3,83</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>4,1; 8,31</t>
+          <t>3,86; 8,27</t>
         </is>
       </c>
     </row>
@@ -1455,47 +1456,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1,05; 3,14</t>
+          <t>1,06; 3,35</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1,35; 3,42</t>
+          <t>1,35; 3,38</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,74; 3,19</t>
+          <t>0,72; 3,05</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>4,57; 7,97</t>
+          <t>4,56; 7,87</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>4,78; 8,36</t>
+          <t>4,76; 8,25</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>5,62; 8,67</t>
+          <t>5,51; 8,65</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>3,18; 5,35</t>
+          <t>3,13; 5,3</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>3,37; 5,52</t>
+          <t>3,37; 5,44</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>2,54; 5,28</t>
+          <t>2,55; 5,33</t>
         </is>
       </c>
     </row>
@@ -1565,47 +1566,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2,02; 3,16</t>
+          <t>1,99; 3,15</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>1,53; 2,53</t>
+          <t>1,56; 2,51</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>2,71; 4,36</t>
+          <t>2,81; 4,42</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>7,19; 8,96</t>
+          <t>7,13; 9,01</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>5,87; 7,63</t>
+          <t>5,87; 7,57</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>6,07; 8,18</t>
+          <t>5,78; 8,09</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>4,79; 5,85</t>
+          <t>4,79; 5,83</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>3,92; 4,97</t>
+          <t>3,9; 4,91</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>4,72; 6,13</t>
+          <t>4,8; 6,09</t>
         </is>
       </c>
     </row>
@@ -1634,4 +1635,1619 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con enfermedades crónicas discapacitantes de salud mental (trastornos depresivos o ansiedad)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>9148</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>7601</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>4679</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>26442</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>31160</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>13010</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>35589</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>38760</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>17689</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>4684; 17226</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>3332; 15953</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>1670; 10714</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>16741; 37555</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>21090; 43287</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>8648; 18338</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>25161; 48935</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>27074; 52923</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>11996; 25559</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>16513</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>13726</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>20814</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>54604</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>44144</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>54756</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>71117</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>57870</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>75570</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>8813; 29570</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>7310; 22676</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>12257; 31521</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>40478; 70024</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>31606; 58557</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>44310; 66704</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>54768; 89804</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>44442; 75685</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>61517; 93328</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>9719</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>2900</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>18472</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>21417</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>17854</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>22170</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>31137</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>20754</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>40642</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>4864; 17354</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>933; 7586</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>11271; 28215</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>13766; 33029</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>11323; 27747</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>16436; 30954</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>21854; 43237</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>13611; 32606</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>30871; 52477</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>2131</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>4991</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>16227</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>33140</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>17841</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>33609</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>35271</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>22832</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>49836</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 7521</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1083; 10930</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>9597; 28291</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>23241; 45026</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>10930; 27868</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>18654; 47074</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>24530; 48136</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>14739; 34563</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>34288; 65247</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>7212</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>10660</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>2301</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>35512</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>18046</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>9388</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>42725</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>28705</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>11689</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>3029; 14203</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>5618; 18767</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>648; 5794</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>25595; 48142</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>11400; 27247</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>4589; 14394</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>31110; 55713</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>20489; 39739</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>7119; 17273</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>8987</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>2560</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>14896</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>23702</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>26883</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>18060</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>32689</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>29443</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>32955</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>4299; 17123</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>789; 6850</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>9427; 23045</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>15396; 33664</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>18689; 38195</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>12879; 25583</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>22808; 44919</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>20355; 41474</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>25028; 44074</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>16754</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>7279</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>30309</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>39962</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>28934</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>66943</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>56716</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>36213</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>97252</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>9798; 27456</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>2751; 15934</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>20485; 44456</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>29072; 55848</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>19337; 42369</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>30669; 93471</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>42983; 73493</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>24671; 51598</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>56890; 121928</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>14694</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>17175</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>18105</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>50214</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>53055</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>50495</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>64908</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>70230</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>68600</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>8232; 26060</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>10536; 26311</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>6680; 28355</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>37491; 64618</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>39331; 68167</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>39554; 62088</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>49990; 84656</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>54099; 87243</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>41964; 87685</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>268</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>452</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>345</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>589</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>85158</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>66891</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>125802</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>284994</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>237917</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>268431</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>370152</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>304808</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>394233</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>68163; 107992</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>53009; 85211</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>97311; 153069</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>253008; 319642</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>208193; 268155</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>214393; 300328</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>333642; 406157</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>270864; 340407</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>344408; 437020</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>